--- a/data/trans_orig/P05A05-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Dificultad-trans_orig.xlsx
@@ -10,7 +10,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5547,1684 +5546,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:W24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="14" customWidth="1" min="15" max="15"/>
-    <col width="14" customWidth="1" min="16" max="16"/>
-    <col width="14" customWidth="1" min="17" max="17"/>
-    <col width="14" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="14" customWidth="1" min="20" max="20"/>
-    <col width="14" customWidth="1" min="21" max="21"/>
-    <col width="14" customWidth="1" min="22" max="22"/>
-    <col width="14" customWidth="1" min="23" max="23"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Población según si en el barrio donde vive hay espacios verdes suficientes [En 2023 se pregunta en negativo] en 2023 (tasa de respuesta: 99,84%)</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="R1" s="3" t="n"/>
-      <c r="S1" s="3" t="n"/>
-      <c r="T1" s="3" t="n"/>
-      <c r="U1" s="3" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>n (muestra)</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>N (estimada)</t>
-        </is>
-      </c>
-      <c r="S2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím inf IC)</t>
-        </is>
-      </c>
-      <c r="T2" s="3" t="inlineStr">
-        <is>
-          <t>N (lím sup IC)</t>
-        </is>
-      </c>
-      <c r="U2" s="3" t="inlineStr">
-        <is>
-          <t>Estimación puntual</t>
-        </is>
-      </c>
-      <c r="V2" s="3" t="inlineStr">
-        <is>
-          <t>lím inf IC</t>
-        </is>
-      </c>
-      <c r="W2" s="3" t="inlineStr">
-        <is>
-          <t>lím sup IC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
-      <c r="O3" s="2" t="n"/>
-      <c r="P3" s="2" t="n"/>
-      <c r="Q3" s="2" t="n"/>
-      <c r="R3" s="2" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
-      <c r="W3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Con dificultad</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>56</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>62175</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>47550</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>80855</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0.1249354342496961</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0.09554737546114535</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0.1624719997760613</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>104</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>80894</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>65845</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>99235</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>0.1300192414784615</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>0.1058310960770481</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>0.1594990164427985</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>160</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>143068</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>118543</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>164149</v>
-      </c>
-      <c r="U4" s="6" t="n">
-        <v>0.1277599707790257</v>
-      </c>
-      <c r="V4" s="6" t="n">
-        <v>0.1058592412060522</v>
-      </c>
-      <c r="W4" s="6" t="n">
-        <v>0.146585399936659</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>61</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>63742</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>49462</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>82673</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0.1280853022524124</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0.09939031692149584</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0.1661262266248575</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>126</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>93177</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>77368</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>109344</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>0.1497615767629081</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>0.1243534168030712</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>0.1757480630426866</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>187</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>156919</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>135260</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>181439</v>
-      </c>
-      <c r="U5" s="6" t="n">
-        <v>0.1401285262417567</v>
-      </c>
-      <c r="V5" s="6" t="n">
-        <v>0.1207875910191753</v>
-      </c>
-      <c r="W5" s="6" t="n">
-        <v>0.1620254073909913</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>337</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>371737</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>348608</v>
-      </c>
-      <c r="F6" s="5" t="n">
-        <v>390576</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0.7469792634978913</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>0.7005029393265709</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0.7848345014497359</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>629</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>448096</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>427652</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>468091</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0.7202191817586303</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>0.6873598208126359</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>0.7523564772078407</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>966</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>819832</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>790414</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>849292</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <v>0.732111502979218</v>
-      </c>
-      <c r="V6" s="6" t="n">
-        <v>0.7058406771509343</v>
-      </c>
-      <c r="W6" s="6" t="n">
-        <v>0.7584187868191729</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>454</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>497654</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>497654</v>
-      </c>
-      <c r="F7" s="5" t="n">
-        <v>497654</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>859</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>622166</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>622166</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>622166</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>1313</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>1119819</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>1119819</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>1119819</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Con cierta/alguna dificultad</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>53</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>55675</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>42240</v>
-      </c>
-      <c r="F8" s="5" t="n">
-        <v>73317</v>
-      </c>
-      <c r="G8" s="6" t="n">
-        <v>0.057986608022513</v>
-      </c>
-      <c r="H8" s="6" t="n">
-        <v>0.04399355404729537</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0.07636057323848933</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>114</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>85224</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>71840</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>103351</v>
-      </c>
-      <c r="N8" s="6" t="n">
-        <v>0.07652747597011961</v>
-      </c>
-      <c r="O8" s="6" t="n">
-        <v>0.06450966867412203</v>
-      </c>
-      <c r="P8" s="6" t="n">
-        <v>0.09280509288547943</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>167</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>140899</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>121202</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>163928</v>
-      </c>
-      <c r="U8" s="6" t="n">
-        <v>0.06794322410335746</v>
-      </c>
-      <c r="V8" s="6" t="n">
-        <v>0.05844539758475677</v>
-      </c>
-      <c r="W8" s="6" t="n">
-        <v>0.07904821381954318</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>108</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>124132</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>102952</v>
-      </c>
-      <c r="F9" s="5" t="n">
-        <v>151112</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0.1292858647991841</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0.1072267453342675</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0.1573855050259244</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>225</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>170162</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>149643</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>194887</v>
-      </c>
-      <c r="N9" s="6" t="n">
-        <v>0.1527991775337016</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>0.1343740075923914</v>
-      </c>
-      <c r="P9" s="6" t="n">
-        <v>0.175001086839335</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>333</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>294294</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>262057</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>326093</v>
-      </c>
-      <c r="U9" s="6" t="n">
-        <v>0.1419127293207365</v>
-      </c>
-      <c r="V9" s="6" t="n">
-        <v>0.1263672157451186</v>
-      </c>
-      <c r="W9" s="6" t="n">
-        <v>0.1572464425285058</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>749</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>780330</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>750701</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>804792</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>0.8127275271783031</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>0.7818685877891889</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0.838204863870348</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>1264</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>858248</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>829792</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>882858</v>
-      </c>
-      <c r="N10" s="6" t="n">
-        <v>0.7706733464961789</v>
-      </c>
-      <c r="O10" s="6" t="n">
-        <v>0.745120956358061</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>0.7927723359302692</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>2013</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>1638577</v>
-      </c>
-      <c r="S10" s="5" t="n">
-        <v>1601486</v>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>1676335</v>
-      </c>
-      <c r="U10" s="6" t="n">
-        <v>0.7901440465759061</v>
-      </c>
-      <c r="V10" s="6" t="n">
-        <v>0.7722583245974192</v>
-      </c>
-      <c r="W10" s="6" t="n">
-        <v>0.8083512788591912</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>910</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>960137</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>960137</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>960137</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>1603</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>1113634</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>1113634</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>1113634</v>
-      </c>
-      <c r="N11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>2513</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>2073770</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>2073770</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>2073770</v>
-      </c>
-      <c r="U11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W11" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Con cierta/alguna facilidad</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>59049</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>45401</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>77333</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>0.05642610174915331</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>0.04338462418489747</v>
-      </c>
-      <c r="I12" s="6" t="n">
-        <v>0.07389803623879376</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>103</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>82909</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>67939</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>99466</v>
-      </c>
-      <c r="N12" s="6" t="n">
-        <v>0.0791389082532785</v>
-      </c>
-      <c r="O12" s="6" t="n">
-        <v>0.06484985500913412</v>
-      </c>
-      <c r="P12" s="6" t="n">
-        <v>0.0949424352962161</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>159</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>141958</v>
-      </c>
-      <c r="S12" s="5" t="n">
-        <v>121280</v>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>166303</v>
-      </c>
-      <c r="U12" s="6" t="n">
-        <v>0.0677888084566847</v>
-      </c>
-      <c r="V12" s="6" t="n">
-        <v>0.05791469888195722</v>
-      </c>
-      <c r="W12" s="6" t="n">
-        <v>0.07941431461419332</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>111</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>118877</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>98628</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>139601</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>0.1135968992841973</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>0.09424717986095758</v>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>0.1334007378954165</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>166</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>118870</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>102636</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>137225</v>
-      </c>
-      <c r="N13" s="6" t="n">
-        <v>0.1134643565443664</v>
-      </c>
-      <c r="O13" s="6" t="n">
-        <v>0.09796837824473777</v>
-      </c>
-      <c r="P13" s="6" t="n">
-        <v>0.1309848775321377</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>277</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>237747</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>209900</v>
-      </c>
-      <c r="T13" s="5" t="n">
-        <v>266390</v>
-      </c>
-      <c r="U13" s="6" t="n">
-        <v>0.1135305911298687</v>
-      </c>
-      <c r="V13" s="6" t="n">
-        <v>0.1002330382457291</v>
-      </c>
-      <c r="W13" s="6" t="n">
-        <v>0.1272085112900032</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>862</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>868553</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>842638</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>892753</v>
-      </c>
-      <c r="G14" s="6" t="n">
-        <v>0.8299769989666493</v>
-      </c>
-      <c r="H14" s="6" t="n">
-        <v>0.8052124167503808</v>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>0.8531018661529335</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>1247</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>845863</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>823332</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>867793</v>
-      </c>
-      <c r="N14" s="6" t="n">
-        <v>0.807396735202355</v>
-      </c>
-      <c r="O14" s="6" t="n">
-        <v>0.7858904168501549</v>
-      </c>
-      <c r="P14" s="6" t="n">
-        <v>0.8283298509095824</v>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>2109</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>1714416</v>
-      </c>
-      <c r="S14" s="5" t="n">
-        <v>1681213</v>
-      </c>
-      <c r="T14" s="5" t="n">
-        <v>1750168</v>
-      </c>
-      <c r="U14" s="6" t="n">
-        <v>0.8186806004134465</v>
-      </c>
-      <c r="V14" s="6" t="n">
-        <v>0.8028251331909245</v>
-      </c>
-      <c r="W14" s="6" t="n">
-        <v>0.8357528799263552</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>1029</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1046479</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>1046479</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>1046479</v>
-      </c>
-      <c r="G15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>1516</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>1047642</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>1047642</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>1047642</v>
-      </c>
-      <c r="N15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>2545</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>2094121</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>2094121</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>2094121</v>
-      </c>
-      <c r="U15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W15" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Con facilidad</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>112927</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>93341</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>138624</v>
-      </c>
-      <c r="G16" s="6" t="n">
-        <v>0.115762941620043</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>0.09568481501336054</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>0.1421046087167837</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>133</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>93161</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>78552</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>109747</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>0.1025334407189669</v>
-      </c>
-      <c r="O16" s="6" t="n">
-        <v>0.08645509555706815</v>
-      </c>
-      <c r="P16" s="6" t="n">
-        <v>0.1207879573861387</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>233</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>206088</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>182603</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <v>239144</v>
-      </c>
-      <c r="U16" s="6" t="n">
-        <v>0.109383113848336</v>
-      </c>
-      <c r="V16" s="6" t="n">
-        <v>0.09691780567035875</v>
-      </c>
-      <c r="W16" s="6" t="n">
-        <v>0.1269273906131785</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>156</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>156187</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>133880</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>183754</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>0.1601091463938403</v>
-      </c>
-      <c r="H17" s="6" t="n">
-        <v>0.137241584894125</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>0.1883682237348279</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>206</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>151162</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>131366</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>171442</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>0.1663699308253294</v>
-      </c>
-      <c r="O17" s="6" t="n">
-        <v>0.1445815958071812</v>
-      </c>
-      <c r="P17" s="6" t="n">
-        <v>0.1886898825903842</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>362</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>307350</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>275257</v>
-      </c>
-      <c r="T17" s="5" t="n">
-        <v>339062</v>
-      </c>
-      <c r="U17" s="6" t="n">
-        <v>0.163128362816845</v>
-      </c>
-      <c r="V17" s="6" t="n">
-        <v>0.1460950258156626</v>
-      </c>
-      <c r="W17" s="6" t="n">
-        <v>0.1799598695415787</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>690</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>706391</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>675021</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>735236</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>0.7241279119861167</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>0.6919703193165894</v>
-      </c>
-      <c r="I18" s="6" t="n">
-        <v>0.7536971596309672</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>982</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>664269</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>638917</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>686194</v>
-      </c>
-      <c r="N18" s="6" t="n">
-        <v>0.7310966284557039</v>
-      </c>
-      <c r="O18" s="6" t="n">
-        <v>0.7031941575040611</v>
-      </c>
-      <c r="P18" s="6" t="n">
-        <v>0.7552277213946733</v>
-      </c>
-      <c r="Q18" s="5" t="n">
-        <v>1672</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>1370659</v>
-      </c>
-      <c r="S18" s="5" t="n">
-        <v>1326115</v>
-      </c>
-      <c r="T18" s="5" t="n">
-        <v>1408095</v>
-      </c>
-      <c r="U18" s="6" t="n">
-        <v>0.7274885233348189</v>
-      </c>
-      <c r="V18" s="6" t="n">
-        <v>0.7038461972692697</v>
-      </c>
-      <c r="W18" s="6" t="n">
-        <v>0.7473580491146919</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>946</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>975506</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>975506</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>975506</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>1321</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>908592</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>908592</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>908592</v>
-      </c>
-      <c r="N19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>2267</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>1884097</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>1884097</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>1884097</v>
-      </c>
-      <c r="U19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W19" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Nada</t>
-        </is>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>265</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>289826</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>253362</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>328737</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0.0832886512858964</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0.07280981549517884</v>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>0.09447072128595531</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>454</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>342187</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>312261</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>375899</v>
-      </c>
-      <c r="N20" s="6" t="n">
-        <v>0.09268263919873547</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>0.08457692343566951</v>
-      </c>
-      <c r="P20" s="6" t="n">
-        <v>0.101813537542631</v>
-      </c>
-      <c r="Q20" s="5" t="n">
-        <v>719</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>632013</v>
-      </c>
-      <c r="S20" s="5" t="n">
-        <v>580376</v>
-      </c>
-      <c r="T20" s="5" t="n">
-        <v>680840</v>
-      </c>
-      <c r="U20" s="6" t="n">
-        <v>0.08812465813758436</v>
-      </c>
-      <c r="V20" s="6" t="n">
-        <v>0.08092468339702381</v>
-      </c>
-      <c r="W20" s="6" t="n">
-        <v>0.09493281798519065</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Algo</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>436</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>462938</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>422063</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>508093</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0.1330368663173412</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0.1212902489412443</v>
-      </c>
-      <c r="I21" s="6" t="n">
-        <v>0.1460131247266028</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>723</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>533371</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>495103</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>574609</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.1444654465906156</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>0.1341005041309065</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>0.1556349193030346</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>1159</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>996310</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>937258</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>1051479</v>
-      </c>
-      <c r="U21" s="6" t="n">
-        <v>0.1389202773904046</v>
-      </c>
-      <c r="V21" s="6" t="n">
-        <v>0.1306864444365955</v>
-      </c>
-      <c r="W21" s="6" t="n">
-        <v>0.1466128434103106</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Mucho</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>2638</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>2727011</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>2671042</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>2778191</v>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>0.7836744823967624</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>0.7675904348887574</v>
-      </c>
-      <c r="I22" s="6" t="n">
-        <v>0.7983823737036391</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>4122</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>2816474</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>2765666</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>2858263</v>
-      </c>
-      <c r="N22" s="6" t="n">
-        <v>0.7628519142106488</v>
-      </c>
-      <c r="O22" s="6" t="n">
-        <v>0.7490903807332576</v>
-      </c>
-      <c r="P22" s="6" t="n">
-        <v>0.7741705933587691</v>
-      </c>
-      <c r="Q22" s="5" t="n">
-        <v>6760</v>
-      </c>
-      <c r="R22" s="5" t="n">
-        <v>5543485</v>
-      </c>
-      <c r="S22" s="5" t="n">
-        <v>5474585</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>5616896</v>
-      </c>
-      <c r="U22" s="6" t="n">
-        <v>0.772955064472011</v>
-      </c>
-      <c r="V22" s="6" t="n">
-        <v>0.7633479237231696</v>
-      </c>
-      <c r="W22" s="6" t="n">
-        <v>0.7831910689621729</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>3339</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>3479775</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>3479775</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>3479775</v>
-      </c>
-      <c r="G23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5" t="n">
-        <v>5299</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>3692033</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>3692033</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>3692033</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>8638</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>7171808</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>7171808</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>7171808</v>
-      </c>
-      <c r="U23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W23" s="6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="A16:A19"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/data/trans_orig/P05A05-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>244813</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>221247</v>
+        <v>222108</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>270570</v>
+        <v>271215</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4220054780858525</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3813821396725034</v>
+        <v>0.3828673674596467</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4664058530211129</v>
+        <v>0.4675161838851024</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>347</v>
@@ -764,19 +764,19 @@
         <v>360741</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>332612</v>
+        <v>332242</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>391997</v>
+        <v>390212</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3915453986231352</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3610149092308687</v>
+        <v>0.3606132431865736</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.425470185169595</v>
+        <v>0.4235327884106643</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>586</v>
@@ -785,19 +785,19 @@
         <v>605554</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>568620</v>
+        <v>572041</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>643948</v>
+        <v>645137</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4033143625776667</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3787158863319028</v>
+        <v>0.3809943849591571</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4288862268520759</v>
+        <v>0.4296778430312885</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>241681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>216350</v>
+        <v>220486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>266745</v>
+        <v>268470</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4166068461089391</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3729418137104923</v>
+        <v>0.3800710482833511</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4598118010931132</v>
+        <v>0.4627849763901841</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>394</v>
@@ -835,19 +835,19 @@
         <v>411573</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>384436</v>
+        <v>380722</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>441633</v>
+        <v>443994</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4467175624217744</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4172634983790104</v>
+        <v>0.4132325113834523</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4793453350987565</v>
+        <v>0.4819075264886575</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>633</v>
@@ -856,19 +856,19 @@
         <v>653253</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>615730</v>
+        <v>613485</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>692356</v>
+        <v>693050</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4350835830894279</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4100920562782157</v>
+        <v>0.4085969586528657</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.46112682756051</v>
+        <v>0.4615893366012231</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>93624</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77851</v>
+        <v>74954</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114243</v>
+        <v>112334</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1613876758052084</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1341990289798194</v>
+        <v>0.1292052811771476</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1969310136652948</v>
+        <v>0.1936403165521419</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>143</v>
@@ -906,19 +906,19 @@
         <v>149013</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>126287</v>
+        <v>127973</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>170543</v>
+        <v>170605</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1617370389550904</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1370705150067123</v>
+        <v>0.1389004777543864</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1851065343801422</v>
+        <v>0.1851734354469929</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>236</v>
@@ -927,19 +927,19 @@
         <v>242636</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>215914</v>
+        <v>215653</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>272577</v>
+        <v>273746</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1616020543329053</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1438041071122069</v>
+        <v>0.1436307041894621</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1815431395752048</v>
+        <v>0.1823222654156323</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>364729</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>337187</v>
+        <v>334687</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>398638</v>
+        <v>397298</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3383715704132197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3128205682792797</v>
+        <v>0.3105006867648927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3698301825544139</v>
+        <v>0.3685876924432032</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>318</v>
@@ -1052,19 +1052,19 @@
         <v>328086</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>297536</v>
+        <v>300012</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>359154</v>
+        <v>359461</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.31133503176255</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2823443207318539</v>
+        <v>0.2846941347940378</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3408166433163681</v>
+        <v>0.3411084664669775</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>675</v>
@@ -1073,19 +1073,19 @@
         <v>692815</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>650937</v>
+        <v>647133</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>739136</v>
+        <v>736009</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3250060691205324</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3053606521787141</v>
+        <v>0.303576213870883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3467359683215999</v>
+        <v>0.3452687513764057</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>517575</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>483263</v>
+        <v>486773</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>549351</v>
+        <v>553312</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4801720823465112</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4483401315864335</v>
+        <v>0.4515966808569023</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5096517771320427</v>
+        <v>0.5133266574107612</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>512</v>
@@ -1123,19 +1123,19 @@
         <v>523177</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>488904</v>
+        <v>491270</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>552626</v>
+        <v>557540</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4964652976199074</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4639421548660318</v>
+        <v>0.4661875750012074</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5244110531468613</v>
+        <v>0.5290739630325206</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1023</v>
@@ -1144,19 +1144,19 @@
         <v>1040752</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>993963</v>
+        <v>998642</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1086338</v>
+        <v>1092500</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4882266263327924</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4662778155058807</v>
+        <v>0.468472639872682</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5096116550807777</v>
+        <v>0.5125020794897518</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>195591</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170790</v>
+        <v>169735</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221698</v>
+        <v>222218</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.181456347240269</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1584482821233676</v>
+        <v>0.157469335789622</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2056772570063169</v>
+        <v>0.2061598783372223</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>195</v>
@@ -1194,19 +1194,19 @@
         <v>202541</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>176274</v>
+        <v>175430</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>229678</v>
+        <v>227817</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1921996706175425</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1672744558422396</v>
+        <v>0.1664735420067034</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2179517650904279</v>
+        <v>0.2161850484781819</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>382</v>
@@ -1215,19 +1215,19 @@
         <v>398131</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>365526</v>
+        <v>362395</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>438052</v>
+        <v>434777</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1867673045466752</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1714716808254588</v>
+        <v>0.1700030161121126</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2054941653069675</v>
+        <v>0.2039579512278533</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>304147</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>272748</v>
+        <v>273790</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>333220</v>
+        <v>331655</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2718349734275223</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.243771224306739</v>
+        <v>0.2447026632025002</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2978194445195885</v>
+        <v>0.2964208429278428</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>240</v>
@@ -1340,19 +1340,19 @@
         <v>241978</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>216735</v>
+        <v>213936</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>271642</v>
+        <v>269238</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2444407497204823</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2189413863348978</v>
+        <v>0.2161139466885248</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2744070476590671</v>
+        <v>0.2719788553733601</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>537</v>
@@ -1361,19 +1361,19 @@
         <v>546125</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>505522</v>
+        <v>506102</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>588522</v>
+        <v>587555</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2589753804895845</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2397214505592746</v>
+        <v>0.2399964585063923</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2790800965544181</v>
+        <v>0.2786217370094328</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>627097</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>592970</v>
+        <v>591379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>661285</v>
+        <v>659721</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5604746689976846</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5299739398826755</v>
+        <v>0.52855161090286</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5910313477180644</v>
+        <v>0.5896329228392777</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>542</v>
@@ -1411,19 +1411,19 @@
         <v>549428</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>516796</v>
+        <v>518003</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>580597</v>
+        <v>583869</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.555020469099332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5220558734808332</v>
+        <v>0.523275641023932</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.586506741555659</v>
+        <v>0.5898122030585553</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1161</v>
@@ -1432,19 +1432,19 @@
         <v>1176525</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1134214</v>
+        <v>1129017</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1225176</v>
+        <v>1216582</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5579143193690534</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5378501459136606</v>
+        <v>0.5353858527778771</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5809851843943256</v>
+        <v>0.5769096835785116</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>187623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>163321</v>
+        <v>162915</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>211436</v>
+        <v>213149</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1676903575747932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1459698899652241</v>
+        <v>0.1456072927628109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1889730109959317</v>
+        <v>0.1905044122611838</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>196</v>
@@ -1482,19 +1482,19 @@
         <v>198518</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>175096</v>
+        <v>173885</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>222685</v>
+        <v>225357</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2005387811801857</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1768785280232514</v>
+        <v>0.1756547712411158</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2249518369105112</v>
+        <v>0.2276506144322079</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>380</v>
@@ -1503,19 +1503,19 @@
         <v>386141</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>353451</v>
+        <v>351748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>425008</v>
+        <v>419725</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.183110300141362</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1676082635974211</v>
+        <v>0.1668009136493867</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2015411059838779</v>
+        <v>0.199035902014307</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>138938</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117759</v>
+        <v>120456</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>158853</v>
+        <v>160389</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3133091922535282</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.265550670129711</v>
+        <v>0.2716315475370026</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3582192695556918</v>
+        <v>0.3616821900761011</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -1628,19 +1628,19 @@
         <v>99413</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>82982</v>
+        <v>81804</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>117108</v>
+        <v>116043</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2922508402408144</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2439481262871702</v>
+        <v>0.2404850480472758</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.34427007656619</v>
+        <v>0.3411392903484838</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>231</v>
@@ -1649,19 +1649,19 @@
         <v>238351</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212121</v>
+        <v>213233</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>263746</v>
+        <v>267162</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.304167879666661</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.270694382269199</v>
+        <v>0.272113410918388</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3365749122532303</v>
+        <v>0.340934364955182</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>193656</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172893</v>
+        <v>174074</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>216055</v>
+        <v>217131</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4366994862156189</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3898780342918021</v>
+        <v>0.3925415026982974</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4872097039977567</v>
+        <v>0.4896373097603492</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>160</v>
@@ -1699,19 +1699,19 @@
         <v>160474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141045</v>
+        <v>141431</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177204</v>
+        <v>178709</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4717546602442564</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4146369363671641</v>
+        <v>0.4157731374728689</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5209365043454427</v>
+        <v>0.5253613134946334</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>353</v>
@@ -1720,19 +1720,19 @@
         <v>354130</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>327182</v>
+        <v>325521</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>382355</v>
+        <v>383696</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4519167407941982</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.417527574642011</v>
+        <v>0.4154081065992687</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4879362662879004</v>
+        <v>0.4896475309770996</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>110859</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>93495</v>
+        <v>92774</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>129345</v>
+        <v>129911</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2499913215308529</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2108341248855399</v>
+        <v>0.2092076232089403</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2916770456539383</v>
+        <v>0.2929543097972215</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>80</v>
@@ -1770,19 +1770,19 @@
         <v>80277</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>66181</v>
+        <v>66731</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>97632</v>
+        <v>95979</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2359944995149292</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1945551603840196</v>
+        <v>0.1961734215865715</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2870158670878065</v>
+        <v>0.2821564660050604</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>186</v>
@@ -1791,19 +1791,19 @@
         <v>191136</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>167634</v>
+        <v>168990</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>216008</v>
+        <v>215627</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2439153795391408</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2139238979746228</v>
+        <v>0.215654194070914</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2756555992489757</v>
+        <v>0.2751691942153314</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>1052627</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1000717</v>
+        <v>996835</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1104529</v>
+        <v>1105871</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3268690001614154</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3107497297972892</v>
+        <v>0.3095442185177062</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.342985995261621</v>
+        <v>0.3434028159020999</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1003</v>
@@ -1916,19 +1916,19 @@
         <v>1030218</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>979779</v>
+        <v>977952</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1084419</v>
+        <v>1082968</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3116944252023505</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2964341543003058</v>
+        <v>0.2958814501428934</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3280932622560438</v>
+        <v>0.3276542247913867</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2029</v>
@@ -1937,19 +1937,19 @@
         <v>2082844</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2014034</v>
+        <v>2004133</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2162005</v>
+        <v>2161301</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3191830165633668</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3086382975207861</v>
+        <v>0.3071209710712589</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3313138483917879</v>
+        <v>0.3312059510258457</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>1580008</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1523949</v>
+        <v>1523403</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1637439</v>
+        <v>1641817</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4906351477590145</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4732273106107826</v>
+        <v>0.4730577470173274</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5084690208101267</v>
+        <v>0.5098284234107433</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1608</v>
@@ -1987,19 +1987,19 @@
         <v>1644651</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1578862</v>
+        <v>1589107</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1698618</v>
+        <v>1703612</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4975924950384337</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4776878186579541</v>
+        <v>0.4807874437144803</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5139203631719348</v>
+        <v>0.5154310753036828</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3170</v>
@@ -2008,19 +2008,19 @@
         <v>3224659</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3144350</v>
+        <v>3145813</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3303706</v>
+        <v>3306142</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.494159072298568</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4818521608459874</v>
+        <v>0.4820763857863343</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5062725098634657</v>
+        <v>0.5066458279917319</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>587697</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>546071</v>
+        <v>544138</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>636778</v>
+        <v>630831</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1824958520795701</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1695697358957831</v>
+        <v>0.1689695569806328</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.19773677617557</v>
+        <v>0.1958900377144895</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>614</v>
@@ -2058,19 +2058,19 @@
         <v>630348</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>590703</v>
+        <v>589960</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>680473</v>
+        <v>673083</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1907130797592159</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1787184369141532</v>
+        <v>0.1784936334748797</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2058783132456512</v>
+        <v>0.2036427085681797</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1184</v>
@@ -2079,19 +2079,19 @@
         <v>1218045</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1156000</v>
+        <v>1153421</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1283815</v>
+        <v>1284348</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1866579111380652</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.177149873455408</v>
+        <v>0.1767546115703114</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1967366874347341</v>
+        <v>0.1968184224852373</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>419678</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>389091</v>
+        <v>387297</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>454769</v>
+        <v>451313</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.404427567693776</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3749521200839921</v>
+        <v>0.3732232961403889</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4382439870893221</v>
+        <v>0.4349132629697816</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>401</v>
@@ -2444,19 +2444,19 @@
         <v>436693</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>401704</v>
+        <v>405471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>472299</v>
+        <v>473482</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3914585884325725</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3600937139119324</v>
+        <v>0.3634711589431931</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4233769506324606</v>
+        <v>0.4244370060966173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>791</v>
@@ -2465,19 +2465,19 @@
         <v>856371</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>807087</v>
+        <v>808750</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>904900</v>
+        <v>905610</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3977086494887001</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3748208351914217</v>
+        <v>0.3755932249964244</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4202462406802397</v>
+        <v>0.4205758437869778</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>423903</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>389932</v>
+        <v>392389</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>455869</v>
+        <v>456259</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4084989943386577</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3757627313487434</v>
+        <v>0.3781303440305557</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4393035271647326</v>
+        <v>0.4396796557293742</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>431</v>
@@ -2515,19 +2515,19 @@
         <v>469897</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>435091</v>
+        <v>437621</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>504756</v>
+        <v>506243</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4212234657131267</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3900224605820344</v>
+        <v>0.3922903338945787</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4524717943613185</v>
+        <v>0.4538047349704929</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>831</v>
@@ -2536,19 +2536,19 @@
         <v>893800</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>847736</v>
+        <v>848630</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>945250</v>
+        <v>943156</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4150912388511956</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3936985009869607</v>
+        <v>0.3941138308585365</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4389853838187813</v>
+        <v>0.438012963672867</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>194128</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>170524</v>
+        <v>168302</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>223688</v>
+        <v>222178</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1870734379675663</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1643271734648601</v>
+        <v>0.162186321955842</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2155592795526264</v>
+        <v>0.2141040830089609</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>195</v>
@@ -2586,19 +2586,19 @@
         <v>208963</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>183215</v>
+        <v>183322</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>235248</v>
+        <v>233661</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1873179458543008</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1642365577567154</v>
+        <v>0.1643330867737942</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2108805827996793</v>
+        <v>0.2094574089910186</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>377</v>
@@ -2607,19 +2607,19 @@
         <v>403091</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>366601</v>
+        <v>365722</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>441162</v>
+        <v>441145</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1872001116601043</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1702540691563577</v>
+        <v>0.169845697728176</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2048810543533644</v>
+        <v>0.2048730656385797</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>290712</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>261831</v>
+        <v>261007</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>317548</v>
+        <v>319560</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2984284631723793</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2687814010077247</v>
+        <v>0.267934839716131</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3259770074532795</v>
+        <v>0.3280429361927234</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>307</v>
@@ -2732,19 +2732,19 @@
         <v>329505</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>300019</v>
+        <v>301293</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362425</v>
+        <v>361413</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3031384389224948</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.276011954870669</v>
+        <v>0.2771834945838193</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3334236292043598</v>
+        <v>0.3324923694031</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>578</v>
@@ -2753,19 +2753,19 @@
         <v>620217</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>577782</v>
+        <v>578880</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>665858</v>
+        <v>665740</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3009123770310972</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2803238504300986</v>
+        <v>0.2808565112178794</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3230559934607355</v>
+        <v>0.3229989186058821</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>453561</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>422802</v>
+        <v>421191</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>486736</v>
+        <v>485901</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4656001580920373</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4340246160259009</v>
+        <v>0.4323716765767213</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4996559923561265</v>
+        <v>0.4987990989908548</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>470</v>
@@ -2803,19 +2803,19 @@
         <v>505394</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>469475</v>
+        <v>473609</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>538269</v>
+        <v>539793</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4649522945481398</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4319076855343511</v>
+        <v>0.4357112807933215</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4951971996179994</v>
+        <v>0.4965984827553042</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>900</v>
@@ -2824,19 +2824,19 @@
         <v>958955</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>910044</v>
+        <v>913140</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1007040</v>
+        <v>1002949</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4652584923764111</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4415283259241861</v>
+        <v>0.4430304167708524</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4885880976385168</v>
+        <v>0.4866036454872126</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>229870</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>203438</v>
+        <v>203638</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>259499</v>
+        <v>258562</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2359713787355835</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2088378488156133</v>
+        <v>0.2090430777779566</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2663877456230315</v>
+        <v>0.265425498017568</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>236</v>
@@ -2874,19 +2874,19 @@
         <v>252081</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>224955</v>
+        <v>223881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>283436</v>
+        <v>285489</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2319092665293654</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.20695373228745</v>
+        <v>0.2059662728126195</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2607554525629431</v>
+        <v>0.2626445778682412</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>456</v>
@@ -2895,19 +2895,19 @@
         <v>481950</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>442633</v>
+        <v>440266</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>518562</v>
+        <v>518715</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2338291305924917</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2147534826528493</v>
+        <v>0.2136048156597736</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2515921949681294</v>
+        <v>0.251666310855658</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>227158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>203413</v>
+        <v>197551</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>258746</v>
+        <v>257465</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2579164369631414</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.230956881258599</v>
+        <v>0.2243008553492366</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2937821967487688</v>
+        <v>0.2923274539177251</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>220</v>
@@ -3020,19 +3020,19 @@
         <v>239093</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>212331</v>
+        <v>212812</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>267307</v>
+        <v>267355</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2736365470999622</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2430072849151364</v>
+        <v>0.2435577869346428</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3059266240000037</v>
+        <v>0.3059817102273059</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>429</v>
@@ -3041,19 +3041,19 @@
         <v>466251</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>430004</v>
+        <v>430007</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>506274</v>
+        <v>504999</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2657452267730794</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2450858720056092</v>
+        <v>0.2450874034165378</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.288556743185188</v>
+        <v>0.2878301708548215</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>380494</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>346491</v>
+        <v>350869</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>409524</v>
+        <v>413026</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4320156927147971</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3934084135449668</v>
+        <v>0.3983789670658401</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4649767445909578</v>
+        <v>0.4689528330791188</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>355</v>
@@ -3091,19 +3091,19 @@
         <v>376914</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>346387</v>
+        <v>345858</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>405658</v>
+        <v>405831</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4313697005841625</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3964322445969372</v>
+        <v>0.3958261193543107</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4642658181932838</v>
+        <v>0.4644637608364671</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>714</v>
@@ -3112,19 +3112,19 @@
         <v>757408</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>712923</v>
+        <v>716343</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>797860</v>
+        <v>801988</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4316939814439729</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4063390527518386</v>
+        <v>0.4082884099011651</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4547499789989824</v>
+        <v>0.4571025149981262</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>273089</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>244174</v>
+        <v>245033</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>299745</v>
+        <v>302173</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3100678703220615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2772369657381155</v>
+        <v>0.2782126446917318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3403324248040589</v>
+        <v>0.3430898676954107</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>244</v>
@@ -3162,19 +3162,19 @@
         <v>257754</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>230977</v>
+        <v>231330</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>287619</v>
+        <v>285880</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2949937523158753</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2643472083591739</v>
+        <v>0.2647513152508248</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3291735024149158</v>
+        <v>0.3271828680928892</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>503</v>
@@ -3183,19 +3183,19 @@
         <v>530844</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>495488</v>
+        <v>489610</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>571327</v>
+        <v>572722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3025607917829476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2824095116167286</v>
+        <v>0.2790588460886343</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3256346881959905</v>
+        <v>0.3264295296492</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>155118</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>134102</v>
+        <v>134402</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>178311</v>
+        <v>179031</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3105518734446042</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2684780234598373</v>
+        <v>0.2690775190226064</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3569858892576275</v>
+        <v>0.35842751527698</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -3308,19 +3308,19 @@
         <v>150518</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>129473</v>
+        <v>130104</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>170741</v>
+        <v>172730</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3367023762616563</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2896262715788114</v>
+        <v>0.2910360866286079</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3819412202060471</v>
+        <v>0.3863905738363731</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>281</v>
@@ -3329,19 +3329,19 @@
         <v>305635</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>279235</v>
+        <v>278485</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>336742</v>
+        <v>338113</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3229025267624658</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2950109436666708</v>
+        <v>0.2942178781974469</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.355766147414906</v>
+        <v>0.3572152120642035</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>192000</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>167786</v>
+        <v>168640</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>213895</v>
+        <v>215130</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3843926900071313</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3359143851723435</v>
+        <v>0.3376235200103843</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4282270262364255</v>
+        <v>0.4306998769410161</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>148</v>
@@ -3379,19 +3379,19 @@
         <v>161384</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141273</v>
+        <v>140647</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>182037</v>
+        <v>183560</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3610079495987518</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3160226124107489</v>
+        <v>0.314621364529671</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4072092163453085</v>
+        <v>0.4106153084141763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>319</v>
@@ -3400,19 +3400,19 @@
         <v>353383</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>320705</v>
+        <v>324477</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>384412</v>
+        <v>387130</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3733482820378988</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3388234360513432</v>
+        <v>0.342808465145306</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4061303187081725</v>
+        <v>0.4090009669607708</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>152372</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>129735</v>
+        <v>132358</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>173742</v>
+        <v>178739</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3050554365482646</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2597354274818894</v>
+        <v>0.2649859458353468</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3478396177303499</v>
+        <v>0.3578436053423116</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>123</v>
@@ -3450,19 +3450,19 @@
         <v>135134</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>114065</v>
+        <v>115354</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>156363</v>
+        <v>155369</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.302289674139592</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2551575316720186</v>
+        <v>0.2580426636766776</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3497765943478086</v>
+        <v>0.3475527561727303</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>265</v>
@@ -3471,19 +3471,19 @@
         <v>287506</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>261120</v>
+        <v>256592</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>321662</v>
+        <v>316188</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3037491911996353</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2758725197513155</v>
+        <v>0.2710881304281694</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3398350794155209</v>
+        <v>0.3340508741663784</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>1092665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1038051</v>
+        <v>1037191</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1155483</v>
+        <v>1150909</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3221221956659495</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3060217348688864</v>
+        <v>0.3057683004465993</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3406412844913599</v>
+        <v>0.3392930079905428</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1064</v>
@@ -3596,19 +3596,19 @@
         <v>1155810</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1104570</v>
+        <v>1100188</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1212562</v>
+        <v>1213934</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3280445519798462</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3135016765531792</v>
+        <v>0.3122577853959806</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.344152147539397</v>
+        <v>0.3445415323741021</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2079</v>
@@ -3617,19 +3617,19 @@
         <v>2248474</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2169445</v>
+        <v>2166729</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2329563</v>
+        <v>2340199</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3251395751054358</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3137115375442507</v>
+        <v>0.3133188834855832</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3368654198673336</v>
+        <v>0.3384034571727337</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>1449958</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1387938</v>
+        <v>1391929</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1512980</v>
+        <v>1513097</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4274537056753176</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4091699674439513</v>
+        <v>0.410346690505846</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4460329719270016</v>
+        <v>0.4460675377795156</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1404</v>
@@ -3667,19 +3667,19 @@
         <v>1513589</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1455085</v>
+        <v>1452211</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1567038</v>
+        <v>1569046</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4295903438448063</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4129856803448981</v>
+        <v>0.4121698158683498</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4447602610169674</v>
+        <v>0.4453301887355406</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2764</v>
@@ -3688,19 +3688,19 @@
         <v>2963547</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2879743</v>
+        <v>2874895</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3053266</v>
+        <v>3045368</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4285423007784371</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4164239772261438</v>
+        <v>0.4157228454672674</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4415161446116724</v>
+        <v>0.440374120945642</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>849459</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>798292</v>
+        <v>793909</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>903188</v>
+        <v>900614</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2504240986587329</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2353399054005646</v>
+        <v>0.2340476958847262</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2662636874366157</v>
+        <v>0.2655050081904406</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>798</v>
@@ -3738,19 +3738,19 @@
         <v>853932</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>802993</v>
+        <v>803123</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>907355</v>
+        <v>907167</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2423651041753475</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2279074563278373</v>
+        <v>0.2279441705682878</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2575276328950648</v>
+        <v>0.257474352063787</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1601</v>
@@ -3759,19 +3759,19 @@
         <v>1703391</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1632777</v>
+        <v>1634062</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1782619</v>
+        <v>1776709</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2463181241161271</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2361069400528365</v>
+        <v>0.2362928141700917</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2577748469393059</v>
+        <v>0.2569202418535833</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>475506</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>443392</v>
+        <v>441923</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>510222</v>
+        <v>508892</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4230725775497631</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3945003542717577</v>
+        <v>0.3931929182683909</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.453961187522625</v>
+        <v>0.4527776804524052</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>489</v>
@@ -4124,19 +4124,19 @@
         <v>513567</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>478568</v>
+        <v>476952</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>551639</v>
+        <v>549118</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4086909192484491</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3808391222205362</v>
+        <v>0.3795537033897595</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4389880869505452</v>
+        <v>0.4369825113927879</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>939</v>
@@ -4145,19 +4145,19 @@
         <v>989072</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>939496</v>
+        <v>936928</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1040028</v>
+        <v>1036528</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4154809676942492</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3946557094205156</v>
+        <v>0.3935769030385882</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4368861874718967</v>
+        <v>0.4354159127558114</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>444961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>411303</v>
+        <v>413211</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>476640</v>
+        <v>480591</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3958961682634856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3659490941564943</v>
+        <v>0.3676467881339369</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4240814281238651</v>
+        <v>0.427597008680617</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>469</v>
@@ -4195,19 +4195,19 @@
         <v>499137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>462607</v>
+        <v>461882</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>534982</v>
+        <v>533716</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3972078891421743</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3681373121381082</v>
+        <v>0.3675611248053874</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4257329326906754</v>
+        <v>0.4247253903689523</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>886</v>
@@ -4216,19 +4216,19 @@
         <v>944098</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>897434</v>
+        <v>897234</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>993928</v>
+        <v>995344</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3965885830700192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3769864622517274</v>
+        <v>0.3769022632345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4175208955958097</v>
+        <v>0.418115500281663</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>203467</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>178907</v>
+        <v>177892</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>231286</v>
+        <v>229341</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1810312541867513</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1591796602251928</v>
+        <v>0.1582762851400342</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2057826323655703</v>
+        <v>0.2040523297913852</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>227</v>
@@ -4266,19 +4266,19 @@
         <v>243910</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>213624</v>
+        <v>216318</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>272163</v>
+        <v>272973</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1941011916093766</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.169999429358298</v>
+        <v>0.1721437288834015</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.21658442182024</v>
+        <v>0.2172293221766001</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>422</v>
@@ -4287,19 +4287,19 @@
         <v>447377</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>406426</v>
+        <v>410721</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>485430</v>
+        <v>489118</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1879304492357316</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1707280278661914</v>
+        <v>0.1725320551164592</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2039153822461054</v>
+        <v>0.2054643603670922</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>321142</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>293759</v>
+        <v>289531</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>349684</v>
+        <v>348911</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3545770328929523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3243431436857631</v>
+        <v>0.3196755151599615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3860906457974181</v>
+        <v>0.3852375742812192</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>367</v>
@@ -4412,19 +4412,19 @@
         <v>389855</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357799</v>
+        <v>361498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>421616</v>
+        <v>424930</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.38954226027442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3575122148563846</v>
+        <v>0.3612085468697926</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4212777125192075</v>
+        <v>0.4245893418762458</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>681</v>
@@ -4433,19 +4433,19 @@
         <v>710997</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>669494</v>
+        <v>669038</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>753764</v>
+        <v>753838</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3729316976783746</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3511628508526366</v>
+        <v>0.3509238583151537</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3953641680177759</v>
+        <v>0.3954026391064328</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>381088</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>351243</v>
+        <v>351413</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>409021</v>
+        <v>411678</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4207645439481709</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3878116098613522</v>
+        <v>0.3879994908526307</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4516052232516661</v>
+        <v>0.4545390106325717</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>363</v>
@@ -4483,19 +4483,19 @@
         <v>379414</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>346087</v>
+        <v>349606</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>409556</v>
+        <v>414399</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3791095004605576</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3458095048207072</v>
+        <v>0.3493262113458854</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4092278229414622</v>
+        <v>0.4140668349334185</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>730</v>
@@ -4504,19 +4504,19 @@
         <v>760502</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>718318</v>
+        <v>719571</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>802283</v>
+        <v>804623</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3988981235901392</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3767718127632875</v>
+        <v>0.377428931722094</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4208130484415376</v>
+        <v>0.4220408812925327</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>203474</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>180506</v>
+        <v>179566</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>231298</v>
+        <v>228557</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2246584231588768</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1992989635784688</v>
+        <v>0.1982612549676891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2553795466558248</v>
+        <v>0.2523532750571416</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>216</v>
@@ -4554,19 +4554,19 @@
         <v>231534</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>203745</v>
+        <v>205339</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>258801</v>
+        <v>258962</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2313482392650225</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2035818823381464</v>
+        <v>0.2051748724831751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2585931636024278</v>
+        <v>0.2587549213303373</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>413</v>
@@ -4575,19 +4575,19 @@
         <v>435008</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>398637</v>
+        <v>394682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>468961</v>
+        <v>471660</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2281701787314862</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2090928077789528</v>
+        <v>0.2070184833891807</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2459791872043406</v>
+        <v>0.2473948849050847</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>284292</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>258473</v>
+        <v>256232</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>316521</v>
+        <v>311264</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3459852095564873</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3145643492236359</v>
+        <v>0.3118365082788613</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3852090290395901</v>
+        <v>0.3788106800442701</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>308</v>
@@ -4700,19 +4700,19 @@
         <v>330249</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>302368</v>
+        <v>301586</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>359925</v>
+        <v>359633</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4294205383634675</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3931661745818444</v>
+        <v>0.3921500878075275</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4680074181943523</v>
+        <v>0.4676275894763345</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>579</v>
@@ -4721,19 +4721,19 @@
         <v>614541</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>575087</v>
+        <v>577717</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>654104</v>
+        <v>658757</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3863226637467101</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3615202709673492</v>
+        <v>0.3631739061860251</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4111935684643979</v>
+        <v>0.4141183941826601</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>330210</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>301500</v>
+        <v>299855</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>358472</v>
+        <v>358354</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.401868842836226</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3669279294977568</v>
+        <v>0.3649259958593502</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4362631291392781</v>
+        <v>0.4361201760990374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>263</v>
@@ -4771,19 +4771,19 @@
         <v>278989</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>251676</v>
+        <v>250116</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>306828</v>
+        <v>307227</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3627669633205275</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3272524409636325</v>
+        <v>0.3252244868392447</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3989661139369199</v>
+        <v>0.3994854174363017</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>580</v>
@@ -4792,19 +4792,19 @@
         <v>609199</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>571971</v>
+        <v>573142</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>646411</v>
+        <v>652262</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3829647371501927</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3595616466521104</v>
+        <v>0.3602977531309603</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4063575065062842</v>
+        <v>0.4100357135928684</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>207185</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>181440</v>
+        <v>183320</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>234234</v>
+        <v>234673</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2521459476072866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2208140479206899</v>
+        <v>0.2231024699178851</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2850642357159876</v>
+        <v>0.2855990930899455</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -4842,19 +4842,19 @@
         <v>159820</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>137450</v>
+        <v>137883</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>184597</v>
+        <v>183481</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.207812498316005</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1787245818791829</v>
+        <v>0.1792877843867767</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2400304054884733</v>
+        <v>0.2385786416185974</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>352</v>
@@ -4863,19 +4863,19 @@
         <v>367005</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>331208</v>
+        <v>333355</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>400583</v>
+        <v>398508</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2307125991030972</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2082092804040257</v>
+        <v>0.2095592879261951</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2518210241529336</v>
+        <v>0.2505165542166589</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>171060</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150481</v>
+        <v>150793</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>195181</v>
+        <v>193478</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3398013288168731</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2989227481050125</v>
+        <v>0.2995426495342961</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3877155638860789</v>
+        <v>0.3843333076086873</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>153</v>
@@ -4988,19 +4988,19 @@
         <v>166921</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>147152</v>
+        <v>147208</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>188272</v>
+        <v>191062</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.343887284049569</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3031607368664564</v>
+        <v>0.3032761962924952</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3878742713700926</v>
+        <v>0.3936219722697729</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>315</v>
@@ -5009,19 +5009,19 @@
         <v>337981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>307666</v>
+        <v>309486</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>368350</v>
+        <v>368930</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.341807078910483</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3111492889112655</v>
+        <v>0.3129901629476522</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3725201746019263</v>
+        <v>0.3731069607126372</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>171395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146959</v>
+        <v>149660</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194711</v>
+        <v>195363</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3404660082921923</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.291925615296886</v>
+        <v>0.2972921652934537</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3867822447580769</v>
+        <v>0.3880769369220505</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>182</v>
@@ -5059,19 +5059,19 @@
         <v>194362</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>171272</v>
+        <v>170381</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216465</v>
+        <v>214980</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4004204449573589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3528511684385965</v>
+        <v>0.3510163533051875</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4459574099588952</v>
+        <v>0.4428973291379371</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>341</v>
@@ -5080,19 +5080,19 @@
         <v>365756</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>335843</v>
+        <v>335871</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>396907</v>
+        <v>395859</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3698969761087788</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3396450555547348</v>
+        <v>0.3396733434230021</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4014010682288617</v>
+        <v>0.40034047608715</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>160957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>140011</v>
+        <v>140942</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>184052</v>
+        <v>183031</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3197326628909346</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.278123311063943</v>
+        <v>0.2799739705908676</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3656097152695961</v>
+        <v>0.3635807996199246</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>116</v>
@@ -5130,19 +5130,19 @@
         <v>124111</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>105048</v>
+        <v>105584</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>143400</v>
+        <v>143866</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2556922709930721</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2164187804630128</v>
+        <v>0.2175214721367483</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2954307841409357</v>
+        <v>0.2963903797215662</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>263</v>
@@ -5151,19 +5151,19 @@
         <v>285068</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>256755</v>
+        <v>256630</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>314349</v>
+        <v>313945</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2882959449807382</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2596614429170733</v>
+        <v>0.2595351968763392</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3179083220449757</v>
+        <v>0.3174998586773197</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>1251999</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1198398</v>
+        <v>1195403</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1314649</v>
+        <v>1309326</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3732033575762866</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3572258739960591</v>
+        <v>0.3563329845003561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3918786474317514</v>
+        <v>0.3902917298070425</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1317</v>
@@ -5276,19 +5276,19 @@
         <v>1400591</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1342999</v>
+        <v>1343865</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1459880</v>
+        <v>1462460</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3988166831111968</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3824174146381545</v>
+        <v>0.3826640399913857</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4156991088506835</v>
+        <v>0.4164338443725555</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2514</v>
@@ -5297,19 +5297,19 @@
         <v>2652590</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2570725</v>
+        <v>2575524</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2736591</v>
+        <v>2732667</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3863030798812837</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3743808923970665</v>
+        <v>0.3750798197212494</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3985364290286055</v>
+        <v>0.3979649393776819</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>1327654</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1273717</v>
+        <v>1265296</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1388671</v>
+        <v>1382867</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3957551313444759</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3796773371202979</v>
+        <v>0.3771672033650352</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4139434222366928</v>
+        <v>0.4122134922413297</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1277</v>
@@ -5347,19 +5347,19 @@
         <v>1351901</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1292438</v>
+        <v>1298755</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1409766</v>
+        <v>1413017</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3849521236639797</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3680200930456753</v>
+        <v>0.3698188714358979</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4014292423722626</v>
+        <v>0.4023550160587692</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2537</v>
@@ -5368,19 +5368,19 @@
         <v>2679555</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2595288</v>
+        <v>2594741</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2762955</v>
+        <v>2757884</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3902300229207233</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3779580558660219</v>
+        <v>0.3778784646352997</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4023758679701668</v>
+        <v>0.4016372987472999</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>775083</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>717330</v>
+        <v>724393</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>823075</v>
+        <v>821390</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2310415110792375</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2138259568878179</v>
+        <v>0.2159314315995206</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2453472555122002</v>
+        <v>0.2448449113471841</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>714</v>
@@ -5418,19 +5418,19 @@
         <v>759375</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>705019</v>
+        <v>710857</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>805398</v>
+        <v>809629</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2162311932248235</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2007532123045588</v>
+        <v>0.2024158167346906</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2293361048650751</v>
+        <v>0.2305408735733421</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1450</v>
@@ -5439,19 +5439,19 @@
         <v>1534458</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1464096</v>
+        <v>1465648</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1603346</v>
+        <v>1601104</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2234668971979931</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2132199051556441</v>
+        <v>0.213445820899701</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.233499196845141</v>
+        <v>0.2331725839718426</v>
       </c>
     </row>
     <row r="23">
